--- a/july2025/13-7-2025/mariam/bosta-completed.xlsx
+++ b/july2025/13-7-2025/mariam/bosta-completed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\13-7-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\13-7-2025\mariam\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199CC9CB-43EE-44FA-BF0C-E5565FC87412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80632D-3292-461B-AD2A-249008CBE5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
   <si>
     <t>Business ID</t>
   </si>
@@ -249,58 +249,7 @@
     <t>Alexandria</t>
   </si>
   <si>
-    <t>29792864</t>
-  </si>
-  <si>
-    <t>RETURNED</t>
-  </si>
-  <si>
-    <t>70313</t>
-  </si>
-  <si>
-    <t>[1]Orlistat 120mg Orlistat for Treating Obesity 30 capsules_x000D_
-_x000D_
-[1]Imtenan Parsley Celery Herbal Tea إمتنان شاي البقدونس والكرفس 18 فلتر</t>
-  </si>
-  <si>
-    <t>ام عمر -</t>
-  </si>
-  <si>
-    <t>+201013147152</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>9.10</t>
-  </si>
-  <si>
-    <t>37704193</t>
-  </si>
-  <si>
-    <t>X-Large</t>
-  </si>
-  <si>
-    <t>70447</t>
-  </si>
-  <si>
-    <t>[1]Sport 1 - Rubber Dumbbells - 10 Kg._x000D_
-_x000D_
-[1]Adjustable Hand Grip Strengthener Exerciser 5-60Kg - هاند جريب - Black_x000D_
-_x000D_
-[1]Premium Fitness Resistant Tube Straps Home Outdoor Exercise - 40 Lbs</t>
-  </si>
-  <si>
-    <t>خالد راشد راشد راشد -</t>
-  </si>
-  <si>
-    <t>+201211500514</t>
-  </si>
-  <si>
     <t>Cairo</t>
-  </si>
-  <si>
-    <t>9.66</t>
   </si>
   <si>
     <t>21307321</t>
@@ -369,8 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -723,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,858 +792,644 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>45848.581590844908</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>45850.016086585645</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>474</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>99.18</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2">
         <v>374.82</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>45851</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>45848.590227569446</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>45850.284436782407</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>990</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>99.18</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3">
         <v>890.81999999999994</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" t="s">
         <v>51</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>45851</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>45850.474724201391</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>45850.626236435186</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>337</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>92.34</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4">
         <v>244.66</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" t="s">
         <v>51</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="1">
         <v>45851</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>45850.396223599535</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>45850.628847581022</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>264</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>92.34</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5">
         <v>171.66</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="1">
         <v>45851</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45850.448356064815</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45850.755630833337</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6">
+        <v>229</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="2">
-        <v>45850.618450162037</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45850.697837268519</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>-74.099999999999994</v>
-      </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>86.64</v>
+      </c>
+      <c r="AF6">
+        <v>142.36000000000001</v>
+      </c>
+      <c r="AG6" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="1">
         <v>45851</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45850.61844928241</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45850.697842499998</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="1">
+        <v>45850.385913692131</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45850.76319125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>78.66</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>-78.66</v>
-      </c>
-      <c r="AG7" s="1" t="s">
+      <c r="O7">
+        <v>435</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>86.64</v>
+      </c>
+      <c r="AF7">
+        <v>348.36</v>
+      </c>
+      <c r="AG7" t="s">
         <v>51</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="1">
         <v>45851</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2">
-        <v>45850.448356064815</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45850.755630833337</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="1">
-        <v>229</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>86.64</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>142.36000000000001</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>45851</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="2">
-        <v>45850.385913692131</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45850.76319125</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="1">
-        <v>435</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>86.64</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>348.36</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>45851</v>
-      </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI7" t="s">
         <v>52</v>
       </c>
     </row>
